--- a/3Dmodel_Prototype/CDB_ExtensionV2.xlsx
+++ b/3Dmodel_Prototype/CDB_ExtensionV2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PresagisMgt\Consultation\CC\SOFWERX\TechSprint II-June2020\CDB2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDB_X\gltf_CDB_extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7368"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Proposed glTF CDB extension" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>Type</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Element</t>
   </si>
   <si>
-    <t>Scene</t>
-  </si>
-  <si>
     <t>Node</t>
   </si>
   <si>
@@ -102,12 +99,6 @@
     <t>CDB_Switch</t>
   </si>
   <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t>matrix</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -118,33 +109,6 @@
   </si>
   <si>
     <t>bounding_box</t>
-  </si>
-  <si>
-    <t>rotation</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>double[3]</t>
-  </si>
-  <si>
-    <t>double[4]</t>
-  </si>
-  <si>
-    <t>double[16]</t>
-  </si>
-  <si>
-    <t>Transformation matrix for the cdb point</t>
-  </si>
-  <si>
-    <t>Translation for the cdb point. Must not be used in combination with matrix</t>
-  </si>
-  <si>
-    <t>Scale for the cdb point. Must not be used in combination with matrix</t>
-  </si>
-  <si>
-    <t>Quaternion rotation for the cdb point. Must not be used in combination with matrix</t>
   </si>
   <si>
     <t>fov</t>
@@ -178,9 +142,6 @@
     <t>conformal</t>
   </si>
   <si>
-    <t>mode</t>
-  </si>
-  <si>
     <t>primitive</t>
   </si>
   <si>
@@ -191,9 +152,6 @@
   </si>
   <si>
     <t>Optional object describing how the model should conform to the terrain</t>
-  </si>
-  <si>
-    <t>List of CDB Points associated to a node</t>
   </si>
   <si>
     <t>Object describing alternate versions of the model that should be 
@@ -225,9 +183,6 @@
     <t>int array</t>
   </si>
   <si>
-    <t>Indexes of light points associated with this node</t>
-  </si>
-  <si>
     <t>CDB_Light_Point</t>
   </si>
   <si>
@@ -287,21 +242,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>Origin of the light</t>
-  </si>
-  <si>
-    <t>Direction the light is facing. Not used for omnidirectional lights</t>
-  </si>
-  <si>
-    <t>Name of the light. References a specific light from the CDB Lights.xml metadata file</t>
-  </si>
-  <si>
     <t>CDB_Model_Attributes</t>
   </si>
   <si>
@@ -384,14 +324,37 @@
     <t>uri pointing to another glTF model</t>
   </si>
   <si>
-    <t>Could use the extension KHR_lights_punctual instead.
-Should we store a position/direction parameter or just rely on transformations on the node?</t>
-  </si>
-  <si>
     <t>Below this section are CDB extensions to existing glTF constructions</t>
   </si>
   <si>
     <t>Below this section are new CDB specific contructs that are linked from the existing contruct extensions (above)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the light. References a specific light from the CDB Lights.xml metadata file.
+</t>
+  </si>
+  <si>
+    <t>Only used for "Viewpoint" type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of CDB Points associated to a node
+The lights are positioned at the origin of this node, facing forward. </t>
+  </si>
+  <si>
+    <t>max horizontal view angle in degrees</t>
+  </si>
+  <si>
+    <t>min vertical view angle in degrees</t>
+  </si>
+  <si>
+    <t>max vertical view angle in degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index of a light point associated with this node
+The light is positioned at the origin of this node, facing forward. </t>
   </si>
 </sst>
 </file>
@@ -448,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -492,6 +455,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,48 +742,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.26171875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="74.578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="58.26171875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="74.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -823,9 +792,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -834,1288 +803,1167 @@
       <c r="F3" s="15"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12" t="s">
-        <v>111</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12" t="s">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>71</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>56</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="9"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
       <c r="B20" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="12"/>
-      <c r="B22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="12"/>
-      <c r="B23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12"/>
-      <c r="B24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>75</v>
-      </c>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="18.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="12" t="s">
-        <v>18</v>
-      </c>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G32" s="17"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" s="17"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="12"/>
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
-      </c>
+    <row r="34" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12"/>
-      <c r="B35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>54</v>
-      </c>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="14"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="13"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="14"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
       <c r="B37" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="13"/>
+        <v>103</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="12" t="s">
-        <v>21</v>
-      </c>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
       <c r="B38" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="12"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="12"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="B40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G41" s="17"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="12"/>
+    <row r="42" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
       <c r="B42" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="17"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="12"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="13"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="12" t="s">
-        <v>40</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="12"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
       <c r="B45" s="3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="12"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="12"/>
-      <c r="B47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>45</v>
-      </c>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="12"/>
-      <c r="B49" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="13"/>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="12"/>
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="13"/>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>117</v>
-      </c>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="12"/>
-      <c r="B52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="14"/>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="12"/>
-      <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G53" s="14"/>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>94</v>
-      </c>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="12"/>
-      <c r="B55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>95</v>
-      </c>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>116</v>
-      </c>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="13">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2130,56 +1978,56 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.41796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="85.68359375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="105.68359375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="105.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
